--- a/out/ヒゲ.xlsx
+++ b/out/ヒゲ.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,17 +370,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>bill_length_mm_n</t>
+          <t>n</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>bill_depth_mm_m</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bill_depth_mm_n</t>
         </is>
       </c>
     </row>
@@ -399,9 +394,6 @@
       <c r="D2">
         <v>18.42058823529412</v>
       </c>
-      <c r="E2">
-        <v>68</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
